--- a/output/3_Regression/c19/c19table_rmse.xlsx
+++ b/output/3_Regression/c19/c19table_rmse.xlsx
@@ -533,7 +533,7 @@
         <v>0.08611290232273132</v>
       </c>
       <c r="G6">
-        <v>1.466878655376284</v>
+        <v>1.466878655376283</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>0.08402208853425951</v>
       </c>
       <c r="G7">
-        <v>1.360502969056014</v>
+        <v>1.360502969056013</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -602,7 +602,7 @@
         <v>0.1070726142210394</v>
       </c>
       <c r="G9">
-        <v>1.198394151946618</v>
+        <v>1.198394151946617</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>0.1207507808544506</v>
       </c>
       <c r="G10">
-        <v>1.128208691201816</v>
+        <v>1.128208691201815</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>0.1301451653809113</v>
       </c>
       <c r="G11">
-        <v>1.056945787007464</v>
+        <v>1.056945787007463</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>0.1420660098858663</v>
       </c>
       <c r="G12">
-        <v>1.017447443970895</v>
+        <v>1.017447443970894</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>0.150158309072355</v>
       </c>
       <c r="G13">
-        <v>0.9753331771061634</v>
+        <v>0.9753331771061631</v>
       </c>
     </row>
   </sheetData>
